--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,120 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>hell</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>die</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stress</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -169,25 +169,31 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>free</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
@@ -196,64 +202,73 @@
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>god</t>
@@ -262,82 +277,61 @@
     <t>ensure</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>safety</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>corona</t>
@@ -698,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,13 +785,13 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -817,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -867,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8116438356164384</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C10">
         <v>28</v>
@@ -1135,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8328981723237598</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L11">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7297297297297297</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.72</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,13 +1285,13 @@
         <v>61</v>
       </c>
       <c r="K13">
-        <v>0.79375</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L13">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="M13">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>62</v>
@@ -1417,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K16">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6521739130434783</v>
+        <v>0.68</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,13 +1485,13 @@
         <v>65</v>
       </c>
       <c r="K17">
-        <v>0.7887323943661971</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6521739130434783</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5769230769230769</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.559322033898305</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.544973544973545</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C21">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7735849056603774</v>
+        <v>0.76875</v>
       </c>
       <c r="L21">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="M21">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5387596899224806</v>
+        <v>0.55</v>
       </c>
       <c r="C22">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>70</v>
@@ -1767,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5234899328859061</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C23">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7619047619047619</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1835,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1859,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1867,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5098039215686274</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1885,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1909,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1917,13 +1911,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1935,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7209302325581395</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1959,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1967,13 +1961,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1985,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2009,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2017,13 +2011,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2035,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2059,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2067,13 +2061,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4358974358974359</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2085,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K29">
-        <v>0.6785714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2109,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2117,13 +2111,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4193548387096774</v>
+        <v>0.44</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2135,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2159,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2167,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4133333333333333</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2185,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6264705882352941</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L31">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M31">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2209,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2217,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3928571428571428</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2235,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2259,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2291,13 +2285,13 @@
         <v>81</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2309,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2317,13 +2311,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.358974358974359</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2335,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K34">
-        <v>0.6071428571428571</v>
+        <v>0.6108786610878661</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2359,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2367,13 +2361,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3513513513513514</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2385,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K35">
-        <v>0.5966101694915255</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M35">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2409,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2417,13 +2411,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3454545454545455</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2435,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K36">
-        <v>0.5899581589958159</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L36">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2459,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2467,13 +2461,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2777777777777778</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2485,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K37">
-        <v>0.58</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2509,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2517,13 +2511,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2698412698412698</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C38">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2535,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K38">
-        <v>0.5692307692307692</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2559,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2567,13 +2561,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2125</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2585,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K39">
-        <v>0.5652173913043478</v>
+        <v>0.58</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2609,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2617,13 +2611,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2077922077922078</v>
+        <v>0.1625</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2635,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K40">
-        <v>0.5531914893617021</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L40">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2659,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2667,13 +2661,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.160857908847185</v>
+        <v>0.1501340482573726</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2685,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K41">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2709,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2717,13 +2711,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2735,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2759,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2767,37 +2761,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01160167579761521</v>
+        <v>0.0106280193236715</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F43">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3067</v>
+        <v>3072</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K43">
-        <v>0.5280898876404494</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2809,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2817,37 +2811,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01074766355140187</v>
+        <v>0.008886810102899906</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F44">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K44">
-        <v>0.5142857142857142</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2859,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2867,13 +2861,13 @@
         <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2885,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2893,25 +2887,25 @@
         <v>94</v>
       </c>
       <c r="K46">
-        <v>0.4814814814814815</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>13</v>
-      </c>
-      <c r="M46">
-        <v>13</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2919,13 +2913,13 @@
         <v>95</v>
       </c>
       <c r="K47">
-        <v>0.4313725490196079</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2937,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2945,13 +2939,13 @@
         <v>96</v>
       </c>
       <c r="K48">
-        <v>0.4222222222222222</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2971,13 +2965,13 @@
         <v>97</v>
       </c>
       <c r="K49">
-        <v>0.4047619047619048</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2989,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2997,13 +2991,13 @@
         <v>98</v>
       </c>
       <c r="K50">
-        <v>0.3835616438356164</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3015,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -3023,13 +3017,13 @@
         <v>99</v>
       </c>
       <c r="K51">
-        <v>0.359375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3041,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -3049,13 +3043,13 @@
         <v>100</v>
       </c>
       <c r="K52">
-        <v>0.3205128205128205</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3067,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -3075,13 +3069,13 @@
         <v>101</v>
       </c>
       <c r="K53">
-        <v>0.2786885245901639</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3093,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -3101,13 +3095,13 @@
         <v>102</v>
       </c>
       <c r="K54">
-        <v>0.2456140350877193</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3119,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3127,13 +3121,13 @@
         <v>103</v>
       </c>
       <c r="K55">
-        <v>0.2372881355932203</v>
+        <v>0.28125</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3145,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3153,25 +3147,25 @@
         <v>104</v>
       </c>
       <c r="K56">
-        <v>0.1388888888888889</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L56">
         <v>15</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3179,13 +3173,13 @@
         <v>105</v>
       </c>
       <c r="K57">
-        <v>0.1129032258064516</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3197,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>110</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3205,77 +3199,25 @@
         <v>106</v>
       </c>
       <c r="K58">
-        <v>0.08108108108108109</v>
+        <v>0.005015673981191223</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59">
-        <v>0.03125</v>
-      </c>
-      <c r="L59">
-        <v>13</v>
-      </c>
-      <c r="M59">
-        <v>13</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K60">
-        <v>0.005644402634054563</v>
-      </c>
-      <c r="L60">
-        <v>18</v>
-      </c>
-      <c r="M60">
-        <v>30</v>
-      </c>
-      <c r="N60">
-        <v>0.6</v>
-      </c>
-      <c r="O60">
-        <v>0.4</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3171</v>
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
